--- a/apoyo/Historias de Usuario.xlsx
+++ b/apoyo/Historias de Usuario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseorellanaaravena/Documents/Full Stack JavaScript/06. Proyecto/alma/apoyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E330AB-D25A-1349-986A-713DDDA1C0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B621D88E-24F1-8948-B9DF-683DE55B05CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{75795DB6-672D-E14C-B603-AE79CCF2FD41}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/apoyo/Historias de Usuario.xlsx
+++ b/apoyo/Historias de Usuario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseorellanaaravena/Documents/Full Stack JavaScript/06. Proyecto/alma/apoyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B621D88E-24F1-8948-B9DF-683DE55B05CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1160FB-1605-6346-8975-1D5C8CE4F480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{75795DB6-672D-E14C-B603-AE79CCF2FD41}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>Dejar de ser cliente de la plataforma</t>
   </si>
   <si>
-    <t>Conocer los principales criterios de evaluación de un crédito.</t>
-  </si>
-  <si>
     <t>Poder acceder al servicio de asesorías financieras.</t>
   </si>
   <si>
@@ -131,11 +128,6 @@
   </si>
   <si>
     <t>Solicitar el servicio de asesoría</t>
-  </si>
-  <si>
-    <t>1. Mostar agenda con fecha y hora para cuando le gustaría ser contactado.
-2. Pedir confirmación de que su email y celular se encuentran actualizados.
-3. Guardar fecha y hora de entrevista en la base de datos.</t>
   </si>
   <si>
     <t>1. El cliente debe acceder a su sitio privado, a través de su login y password.
@@ -146,15 +138,6 @@
     <t>1. El cliente debe acceder a su sitio privado, a través de su login y password.
 2. Debe tener un botón con el cual se ejecute la eliminación de su cuenta.
 3. Los datos del cliente deben ser eliminados de la base de datos.</t>
-  </si>
-  <si>
-    <t>1. La página debe estar disponible 24/7.
-2. Debe mostrar información como valor UF, IPC, UTM, Dolar, etc.
-3. Debe mostrar los principales ratios finacieros que se necesitan para una evaluación crediticia de una Persona Natural Sin Giro Comercial (PNSGC), tales como: carga financiera, levergae y patrimonio.</t>
-  </si>
-  <si>
-    <t>1. Con la información financiera proporsionada por el cliente, la API debe entregarle los cálculos de sus ratios financieros e indicar una recomendación automática, tipo semáforo, con 3 niveles de endeudamiento: sano, medio o alto.
-2. Los ratios calculados deben mostrarse en el sitio privado del cliente.</t>
   </si>
   <si>
     <t>1. Resgistro de información de identificación: nombre, rut, fecha de nacimiento, email, teléfono y comuna.
@@ -162,6 +145,27 @@
 3. Debe ser un registro único por cliente, por lo tanto el rut debe ser el identificador que cumpla este criterio.
 4. Se debe generar una cuenta de usuario con su login y  password. Dado a que el rut es un valor único para cada persona, este se considerará como login.
 5. La información debe quedar registrada en la base de datos.</t>
+  </si>
+  <si>
+    <t>Conocer los principales criterios de evaluación de un crédito. Además mostrar opciones para poder registrarme o  acceder a mi sitio privado.</t>
+  </si>
+  <si>
+    <t>1. La página debe estar disponible 24/7.
+2. Debe mostrar información como valor UF, IPC, UTM, Dolar, etc.
+3. Debe mostrar los principales ratios finacieros que se necesitan para una evaluación crediticia de una Persona Natural Sin Giro Comercial (PNSGC), tales como: carga financiera, levergae y patrimonio.
+4. Debe mostrar opción para que un cliente se pueda registrar.
+5. Debe mostrar opción para que un cliente pueda ingresar a su sitio privado.</t>
+  </si>
+  <si>
+    <t>1. Con la información financiera proporsionada por el cliente, la API debe entregarle los cálculos de sus ratios financieros.
+2. Entregar recomendación automática, tipo semáforo, con 3 niveles de sugerencia.
+3. Los ratios calculados y la recomendación deben mostrarse en el sitio privado del cliente.
+4. Los ratios calculados y la reomendación deben ser guardados en la BD, solo si el cliente necesita una asesoría.</t>
+  </si>
+  <si>
+    <t>1. Mostar agenda con fecha, hora y comentario, para cuando le gustaría ser contactado.
+2. Pedir confirmación de que su email y celular se encuentran actualizados.
+3. Guardar fecha y hora de entrevista en la base de datos.</t>
   </si>
 </sst>
 </file>
@@ -185,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -245,6 +255,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,8 +576,8 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,8 +613,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
@@ -615,14 +628,14 @@
         <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="5"/>
@@ -636,14 +649,14 @@
         <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="5"/>
@@ -660,11 +673,11 @@
         <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5"/>
@@ -681,49 +694,49 @@
         <v>23</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:7" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/apoyo/Historias de Usuario.xlsx
+++ b/apoyo/Historias de Usuario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseorellanaaravena/Documents/Full Stack JavaScript/06. Proyecto/alma/apoyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1160FB-1605-6346-8975-1D5C8CE4F480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D06729-6F5C-304C-82F7-904CAD952A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{75795DB6-672D-E14C-B603-AE79CCF2FD41}"/>
   </bookViews>
@@ -576,8 +576,8 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
